--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018-19 Statutory Scenarios\201819 Statutory Input sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -1365,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="15" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForAprilMonthSMP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForMayMonthSMP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForJuneMonthSMP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="14" r:id="rId10"/>
-    <sheet name="ProcessPayrollForNovMonthSMP" sheetId="11" r:id="rId11"/>
-    <sheet name="ProcessPayrollForDecMonthSMP" sheetId="12" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJan2016MontSMP" sheetId="13" r:id="rId13"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="15"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForAprilMonthSMP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForMayMonthSMP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForJuneMonthSMP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="14"/>
+    <sheet name="ProcessPayrollForNovMonthSMP" r:id="rId11" sheetId="11"/>
+    <sheet name="ProcessPayrollForDecMonthSMP" r:id="rId12" sheetId="12"/>
+    <sheet name="ProcessPayrollForJan2016MontSMP" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>
@@ -607,6 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,65 +672,65 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -746,10 +747,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -784,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,7 +837,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,7 +942,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -950,13 +951,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -966,7 +967,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -975,7 +976,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -984,7 +985,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -994,12 +995,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1030,7 +1031,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1049,7 +1050,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1061,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1070,10 +1071,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -1357,12 +1358,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1371,17 +1372,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1428,7 +1429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="51.75" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
@@ -1466,14 +1467,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1482,17 +1483,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1539,7 +1540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="54" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
@@ -1581,14 +1582,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,15 +1598,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1652,7 +1653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="58.9" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
@@ -1694,15 +1695,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1711,17 +1712,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1768,7 +1769,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="69" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
@@ -1810,14 +1811,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1826,8 +1827,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,7 +1851,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -1865,13 +1866,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1880,15 +1881,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2269,15 +2270,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2286,11 +2287,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2319,7 +2320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -2340,13 +2341,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,8 +2356,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,7 +2377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2388,13 +2389,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,18 +2404,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2461,7 +2462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
@@ -2501,15 +2502,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2518,16 +2519,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2574,7 +2575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="69.599999999999994" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
@@ -2614,14 +2615,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -2630,17 +2631,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2687,7 +2688,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="60" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>171</v>
       </c>
@@ -2727,14 +2728,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2743,16 +2744,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="12" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2802,7 +2803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -2845,7 +2846,7 @@
       <c r="Q2" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="12" firstSheet="11" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A8DC31D4-6605-4098-95F0-A632CA0A0993}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="11" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetData" r:id="rId2" sheetId="15"/>
-    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
-    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
-    <sheet name="ProcessPayrollForAprilMonthSMP" r:id="rId6" sheetId="7"/>
-    <sheet name="ProcessPayrollForMayMonthSMP" r:id="rId7" sheetId="8"/>
-    <sheet name="ProcessPayrollForJuneMonthSMP" r:id="rId8" sheetId="9"/>
-    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
-    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="14"/>
-    <sheet name="ProcessPayrollForNovMonthSMP" r:id="rId11" sheetId="11"/>
-    <sheet name="ProcessPayrollForDecMonthSMP" r:id="rId12" sheetId="12"/>
-    <sheet name="ProcessPayrollForJan2016MontSMP" r:id="rId13" sheetId="13"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="15" r:id="rId2"/>
+    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
+    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
+    <sheet name="ProcessPayrollForMayMonthSMP" sheetId="7" r:id="rId6"/>
+    <sheet name="ProcessPayrollForJuneMonthSMP" sheetId="8" r:id="rId7"/>
+    <sheet name="ProcessPayrollForJulyMonthSMP" sheetId="9" r:id="rId8"/>
+    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
+    <sheet name="AverageWeeklyEarningsTestReport" sheetId="14" r:id="rId10"/>
+    <sheet name="ProcessPayrollForNovMonthSMP" sheetId="11" r:id="rId11"/>
+    <sheet name="ProcessPayrollForDecMonthSMP" sheetId="12" r:id="rId12"/>
+    <sheet name="ProcessPayrollForJan2016MontSMP" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>
@@ -378,9 +379,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>ProcessPayrollForAprilMonthSMP</t>
-  </si>
-  <si>
     <t>Processess the Payroll for various months would get processed</t>
   </si>
   <si>
@@ -405,9 +403,6 @@
     <t>ProcessPayrollForJan2016MontSMP</t>
   </si>
   <si>
-    <t>TestAprilReports</t>
-  </si>
-  <si>
     <t>Processess the April month report script</t>
   </si>
   <si>
@@ -552,18 +547,12 @@
     <t>DIRSMP_Payroll</t>
   </si>
   <si>
-    <t>04/01/2018</t>
-  </si>
-  <si>
     <t>NT</t>
   </si>
   <si>
     <t>Cumulative</t>
   </si>
   <si>
-    <t>April-2018</t>
-  </si>
-  <si>
     <t>Payroll Suite StatutoryMaternityPay201819.xlsx</t>
   </si>
   <si>
@@ -601,13 +590,24 @@
   </si>
   <si>
     <t>includeInHolidayEarnings</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>ProcessPayrollForJulyMonthSMP</t>
+  </si>
+  <si>
+    <t>TestJulyReports</t>
+  </si>
+  <si>
+    <t>July-2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,65 +672,65 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -747,10 +747,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -785,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,7 +837,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,7 +942,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -951,13 +951,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -967,7 +967,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -976,7 +976,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -985,7 +985,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -995,12 +995,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1031,7 +1031,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1050,7 +1050,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1062,19 +1062,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         <v>114</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1158,21 +1158,21 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>124</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1189,12 +1189,12 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -1358,12 +1358,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1372,52 +1372,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1429,37 +1429,37 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="51.75" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1467,14 +1467,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1483,52 +1483,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1540,39 +1540,39 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="54" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1582,14 +1582,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1598,50 +1598,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1653,39 +1653,39 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="58.9" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1695,69 +1695,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -1769,39 +1769,39 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="69" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1811,24 +1811,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,10 +1836,10 @@
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1851,28 +1851,28 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1881,15 +1881,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2270,15 +2270,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2287,11 +2287,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2320,15 +2320,15 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="19">
         <v>12000</v>
@@ -2341,13 +2341,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2356,8 +2356,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2389,68 +2389,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="38" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2462,36 +2462,36 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>81</v>
@@ -2502,68 +2502,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2575,36 +2575,36 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="69.599999999999994" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>81</v>
@@ -2615,68 +2615,68 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -2688,36 +2688,36 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="60" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>81</v>
@@ -2728,14 +2728,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2744,16 +2744,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2761,37 +2761,37 @@
         <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -2803,42 +2803,42 @@
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>186</v>
-      </c>
       <c r="H2" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>4</v>
@@ -2846,7 +2846,7 @@
       <c r="Q2" s="21"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -1,38 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018-19 Statutory Scenarios\201819 Statutory Input sheets\201718 input sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{089607E3-9B01-40F6-9618-645241987A0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{EB9258F5-1438-4B90-8A51-6896B08AF25B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="6" firstSheet="4" windowHeight="5400" windowWidth="15165" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="15" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForMayMonthSMP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForJuneMonthSMP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForJulyMonthSMP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="14" r:id="rId10"/>
-    <sheet name="ProcessPayrollForNovMonthSMP" sheetId="11" r:id="rId11"/>
-    <sheet name="ProcessPayrollForDecMonthSMP" sheetId="12" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJan2016MontSMP" sheetId="13" r:id="rId13"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="15"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForMayMonthSMP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForJuneMonthSMP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForJulyMonthSMP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="14"/>
+    <sheet name="ProcessPayrollForNovMonthSMP" r:id="rId11" sheetId="11"/>
+    <sheet name="ProcessPayrollForDecMonthSMP" r:id="rId12" sheetId="12"/>
+    <sheet name="ProcessPayrollForJan2016MontSMP" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>
@@ -608,6 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,65 +673,65 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -747,10 +748,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -785,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,7 +838,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -942,7 +943,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -951,13 +952,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -967,7 +968,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -976,7 +977,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -985,7 +986,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -995,12 +996,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1031,7 +1032,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1050,7 +1051,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1062,19 +1063,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -1358,12 +1359,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1372,17 +1373,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1429,7 +1430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="51.75" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
@@ -1467,14 +1468,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1483,17 +1484,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1540,7 +1541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="54" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
@@ -1582,14 +1583,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1598,15 +1599,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1653,7 +1654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="58.9" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
@@ -1695,34 +1696,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1769,7 +1770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="69" r="2" s="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
@@ -1811,14 +1812,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1827,8 +1828,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,7 +1852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -1866,13 +1867,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1881,15 +1882,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -2270,15 +2271,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId1" ref="C2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="D2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2287,11 +2288,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2320,7 +2321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -2341,13 +2342,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2356,8 +2357,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,7 +2378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.45" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>104</v>
       </c>
@@ -2389,33 +2390,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2462,7 +2463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="52.5" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
@@ -2502,33 +2503,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2575,7 +2576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="69.599999999999994" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
@@ -2615,14 +2616,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2631,17 +2632,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2688,7 +2689,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="60" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>169</v>
       </c>
@@ -2728,14 +2729,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2744,16 +2745,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="12" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2803,7 +2804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>104</v>
       </c>
@@ -2846,7 +2847,7 @@
       <c r="Q2" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryMaternityPay201819.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="190">
   <si>
     <t>TC</t>
   </si>
